--- a/analysis/data/raw_data/TCSA_site_info.xlsx
+++ b/analysis/data/raw_data/TCSA_site_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayoungp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayoungp/Desktop/tcsakoreanpaleolithic/analysis/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC653F-A6AA-DA45-9F0C-9C85EE22DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD8175-1877-BF4B-BCC8-46B76EB54A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49000" yWindow="-13600" windowWidth="27640" windowHeight="17500" xr2:uid="{F8A17F9A-B64E-2647-93B7-D6DA2DD18B76}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{F8A17F9A-B64E-2647-93B7-D6DA2DD18B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="111">
   <si>
     <t>Site_name</t>
   </si>
@@ -286,6 +286,87 @@
   </si>
   <si>
     <t>25,500±1,000</t>
+  </si>
+  <si>
+    <t>Assemblage</t>
+  </si>
+  <si>
+    <t>24,200±600</t>
+  </si>
+  <si>
+    <t>19,170±100</t>
+  </si>
+  <si>
+    <t>25,150±150</t>
+  </si>
+  <si>
+    <t>33,080±240</t>
+  </si>
+  <si>
+    <t>Suyanggae_3</t>
+  </si>
+  <si>
+    <t>Suyanggae_1a</t>
+  </si>
+  <si>
+    <t>Suyanggae_1b</t>
+  </si>
+  <si>
+    <t>Suyanggae_6</t>
+  </si>
+  <si>
+    <t>18,980±100</t>
+  </si>
+  <si>
+    <t>Seokjangri_1</t>
+  </si>
+  <si>
+    <t>Seokjangri_2</t>
+  </si>
+  <si>
+    <t>14,820±100</t>
+  </si>
+  <si>
+    <t>41,500±1,500</t>
+  </si>
+  <si>
+    <t>Haga_2</t>
+  </si>
+  <si>
+    <t>Haga_1</t>
+  </si>
+  <si>
+    <t>19,500±200</t>
+  </si>
+  <si>
+    <t>17,700±200</t>
+  </si>
+  <si>
+    <t>Wolpyeng_1</t>
+  </si>
+  <si>
+    <t>21,500±300</t>
+  </si>
+  <si>
+    <t>Wolpyeng_2</t>
+  </si>
+  <si>
+    <t>18,200±100</t>
+  </si>
+  <si>
+    <t>Wolpyeng_3</t>
+  </si>
+  <si>
+    <t>27,500±150</t>
+  </si>
+  <si>
+    <t>Sinbuk_1</t>
+  </si>
+  <si>
+    <t>23,840±90</t>
+  </si>
+  <si>
+    <t>Sinbuk_2</t>
   </si>
 </sst>
 </file>
@@ -408,9 +489,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,19 +804,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB5B805-1B5E-074B-94D6-5B5837C4B056}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
-    <col min="2" max="6" width="13.83203125" style="6" customWidth="1"/>
+    <col min="2" max="7" width="13.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,28 +824,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -774,17 +858,22 @@
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -792,17 +881,22 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -810,17 +904,22 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -828,31 +927,37 @@
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>37.966666670000002</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>127.33511110000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>128.5</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -860,114 +965,129 @@
         <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>37.56027778</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>127.5688889</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>37.769722219999998</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>127.08750000000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>147.5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>37.00222222</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>127.7</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>129.5</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>36.960277779999998</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>128.3319444</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>157.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>22</v>
@@ -975,19 +1095,22 @@
       <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>23</v>
@@ -995,37 +1118,45 @@
       <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E14" s="9">
         <v>36.938130000000001</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>128.29974000000001</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
+      <c r="C15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>26</v>
@@ -1033,116 +1164,138 @@
       <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>36.61</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>127.60194439999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>38</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>36.448611110000002</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>127.452575</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>39.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+      <c r="C18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4">
         <v>36.446748999999997</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>127.189826</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>36.421944439999997</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>127.3966667</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>37</v>
@@ -1150,89 +1303,108 @@
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
+      <c r="C23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4">
         <v>35.816666669999996</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>127.1</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="C24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4">
+      <c r="C25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="4">
         <v>35.633333329999999</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>127.22016669999999</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>46</v>
+      <c r="C26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>46</v>
@@ -1240,35 +1412,43 @@
       <c r="F26" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="C27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>50</v>
+      <c r="C28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>50</v>
@@ -1276,107 +1456,129 @@
       <c r="F28" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="C29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="C30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4">
+      <c r="C31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="4">
         <v>34.978513</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>127.245347</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
+      <c r="C32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="4">
         <v>34.945636</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>126.97632900000001</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4">
+      <c r="C33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="4">
         <v>34.917482</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>127.27183100000001</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>61</v>
+      <c r="C34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>61</v>
@@ -1384,17 +1586,22 @@
       <c r="F34" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>62</v>
+      <c r="C35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>62</v>
@@ -1402,17 +1609,22 @@
       <c r="F35" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>64</v>
+      <c r="C36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>64</v>
@@ -1420,24 +1632,30 @@
       <c r="F36" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>34.741666670000001</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>126.9972222</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>65</v>
       </c>
     </row>
